--- a/database/seeds/OA_Knee_Exercise_Database.xlsx
+++ b/database/seeds/OA_Knee_Exercise_Database.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Wong\Documents\PhysioAIign\test_projects\questionnaire\physiotherapy-exercise-recommendation\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40398CE3-7E68-48CB-86BB-4609D3822723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE204B6-73B5-45B7-A56B-38E34408664C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercises" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
   <si>
     <t>exercise_name</t>
   </si>
@@ -226,6 +226,108 @@
     <t>cycling, swimming</t>
   </si>
   <si>
+    <t>running hiking, dancing, racket sports</t>
+  </si>
+  <si>
+    <t>exercise_name_ch</t>
+  </si>
+  <si>
+    <t>直膝抬腿</t>
+  </si>
+  <si>
+    <t>雙腳臀橋</t>
+  </si>
+  <si>
+    <t>雙腳膕旁肌橋式</t>
+  </si>
+  <si>
+    <t>單腳臀橋</t>
+  </si>
+  <si>
+    <t>單腳膕旁肌橋式</t>
+  </si>
+  <si>
+    <t>仰臥剪刀式</t>
+  </si>
+  <si>
+    <t>仰臥三個月姿勢髖部下放</t>
+  </si>
+  <si>
+    <t>死蟲式</t>
+  </si>
+  <si>
+    <t>側臥蚌殼式</t>
+  </si>
+  <si>
+    <t>跪姿側棒式髖部升降</t>
+  </si>
+  <si>
+    <t>跪姿側棒式停留</t>
+  </si>
+  <si>
+    <t>側棒式蚌殼式</t>
+  </si>
+  <si>
+    <t>側棒式髖外展</t>
+  </si>
+  <si>
+    <t>哥本哈根內收肌運動 Lv1</t>
+  </si>
+  <si>
+    <t>哥本哈根內收肌運動 Lv2</t>
+  </si>
+  <si>
+    <t>四足跪姿單肢活動</t>
+  </si>
+  <si>
+    <t>四足跪姿驢踢</t>
+  </si>
+  <si>
+    <t>四足跪姿後踢</t>
+  </si>
+  <si>
+    <t>四足跪姿髖外展</t>
+  </si>
+  <si>
+    <t>鳥狗式</t>
+  </si>
+  <si>
+    <t>雙腳深蹲</t>
+  </si>
+  <si>
+    <t>彈力帶雙腳深蹲</t>
+  </si>
+  <si>
+    <t>雙腳深蹲(夾內收肌)</t>
+  </si>
+  <si>
+    <t>髖關節鉸鏈</t>
+  </si>
+  <si>
+    <t>分腿蹲</t>
+  </si>
+  <si>
+    <t>後弓箭步</t>
+  </si>
+  <si>
+    <t>登階運動</t>
+  </si>
+  <si>
+    <t>側蹲</t>
+  </si>
+  <si>
+    <t>骨盆側提</t>
+  </si>
+  <si>
+    <t>保加利亞分腿蹲</t>
+  </si>
+  <si>
+    <t>單腳半蹲</t>
+  </si>
+  <si>
+    <t>單腳羅馬尼亞硬舉</t>
+  </si>
+  <si>
     <t>muscle_quad_value</t>
   </si>
   <si>
@@ -245,115 +347,13 @@
   </si>
   <si>
     <t>difficulty_category</t>
-  </si>
-  <si>
-    <t>exercise_name_ch</t>
-  </si>
-  <si>
-    <t>直膝抬腿</t>
-  </si>
-  <si>
-    <t>雙腳臀橋</t>
-  </si>
-  <si>
-    <t>雙腳膕旁肌橋式</t>
-  </si>
-  <si>
-    <t>單腳臀橋</t>
-  </si>
-  <si>
-    <t>單腳膕旁肌橋式</t>
-  </si>
-  <si>
-    <t>仰臥剪刀式</t>
-  </si>
-  <si>
-    <t>仰臥三個月姿勢髖部下放</t>
-  </si>
-  <si>
-    <t>死蟲式</t>
-  </si>
-  <si>
-    <t>側臥蚌殼式</t>
-  </si>
-  <si>
-    <t>跪姿側棒式髖部升降</t>
-  </si>
-  <si>
-    <t>跪姿側棒式停留</t>
-  </si>
-  <si>
-    <t>側棒式蚌殼式</t>
-  </si>
-  <si>
-    <t>側棒式髖外展</t>
-  </si>
-  <si>
-    <t>哥本哈根內收肌運動 Lv1</t>
-  </si>
-  <si>
-    <t>哥本哈根內收肌運動 Lv2</t>
-  </si>
-  <si>
-    <t>四足跪姿單肢活動</t>
-  </si>
-  <si>
-    <t>四足跪姿驢踢</t>
-  </si>
-  <si>
-    <t>四足跪姿後踢</t>
-  </si>
-  <si>
-    <t>四足跪姿髖外展</t>
-  </si>
-  <si>
-    <t>鳥狗式</t>
-  </si>
-  <si>
-    <t>雙腳深蹲</t>
-  </si>
-  <si>
-    <t>彈力帶雙腳深蹲</t>
-  </si>
-  <si>
-    <t>雙腳深蹲(夾內收肌)</t>
-  </si>
-  <si>
-    <t>髖關節鉸鏈</t>
-  </si>
-  <si>
-    <t>分腿蹲</t>
-  </si>
-  <si>
-    <t>後弓箭步</t>
-  </si>
-  <si>
-    <t>登階運動</t>
-  </si>
-  <si>
-    <t>側蹲</t>
-  </si>
-  <si>
-    <t>骨盆側提</t>
-  </si>
-  <si>
-    <t>保加利亞分腿蹲</t>
-  </si>
-  <si>
-    <t>單腳半蹲</t>
-  </si>
-  <si>
-    <t>單腳羅馬尼亞硬舉</t>
-  </si>
-  <si>
-    <t>running, hiking, dancing, racket sports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +391,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -403,7 +410,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,18 +448,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -469,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -533,17 +544,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,39 +596,47 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
-    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,8 +939,8 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD26" sqref="AD26"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +959,7 @@
     <col min="25" max="25" width="14" style="7" customWidth="1"/>
     <col min="26" max="26" width="25.77734375" customWidth="1"/>
     <col min="27" max="27" width="27" customWidth="1"/>
-    <col min="28" max="28" width="32.5546875" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" customWidth="1"/>
     <col min="29" max="29" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -953,516 +988,530 @@
       <c r="H1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="14" t="s">
         <v>59</v>
       </c>
       <c r="AB1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:29" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>4</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>3</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="B2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17">
+        <v>4</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17">
+        <v>3</v>
+      </c>
+      <c r="S2" s="17">
         <v>1</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="17">
         <v>1</v>
       </c>
-      <c r="X2" s="2">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="17">
         <v>1</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="B3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>4</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="17">
         <v>1</v>
       </c>
-      <c r="W3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="2">
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="17">
         <v>2</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="Z3" s="16" t="str">
         <f>A5</f>
         <v>Single leg glute bridging</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="B4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>4</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
         <v>1</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="17">
         <v>1</v>
       </c>
-      <c r="W4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="7" t="s">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="Z4" s="16" t="str">
         <f>A6</f>
         <v>Single leg hamstrings bridging</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="B5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>4</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>5</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>4</v>
+      </c>
+      <c r="T5" s="17">
         <v>2</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="7" t="s">
+      <c r="U5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="B6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>4</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>4</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>4</v>
+      </c>
+      <c r="T6" s="17">
         <v>2</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="7" t="s">
+      <c r="U6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
+      <c r="B7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>3</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="17">
         <v>1</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="Z7" s="16" t="str">
         <f>A8</f>
         <v>3-months supine hip lowering</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
+      <c r="B8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>5</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>5</v>
+      </c>
+      <c r="S8" s="17">
         <v>1</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="17">
         <v>1</v>
       </c>
-      <c r="W8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="17">
         <v>2</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="Z8" s="16" t="str">
         <f>A9</f>
         <v>Deadbug</v>
       </c>
-      <c r="AA8" t="str">
+      <c r="AA8" s="16" t="str">
         <f>A7</f>
         <v>Scissors</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
+      <c r="B9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
         <v>2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="17">
         <v>1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="17">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
-        <v>4</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="R9" s="17">
+        <v>4</v>
+      </c>
+      <c r="S9" s="17">
         <v>1</v>
       </c>
-      <c r="T9" s="2">
-        <v>3</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X9" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="7" t="s">
+      <c r="T9" s="17">
+        <v>3</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AA9" t="str">
+      <c r="AA9" s="16" t="str">
         <f>A8</f>
         <v>3-months supine hip lowering</v>
       </c>
@@ -1472,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1509,6 +1558,9 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
+      <c r="V10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="X10" s="2">
         <v>1</v>
       </c>
@@ -1525,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>11</v>
@@ -1581,7 +1633,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1641,7 +1693,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>11</v>
@@ -1677,6 +1729,9 @@
       <c r="U13" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="V13" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="X13" s="7">
         <v>4</v>
       </c>
@@ -1693,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -1741,7 +1796,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>11</v>
@@ -1788,7 +1843,7 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -1833,307 +1888,327 @@
         <v>Copenhagen adductor lv1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:29" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="B17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="N17" s="17"/>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
         <v>1</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="18">
         <v>1</v>
       </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>3</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X17" s="7">
+      <c r="R17" s="18">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
+        <v>3</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18">
         <v>2</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Y17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Z17" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="B18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>4</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="7" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>3</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
+        <v>4</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="18"/>
+      <c r="X18" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="Z18" s="16" t="str">
         <f>A19</f>
         <v>Quadruped leg extension</v>
       </c>
-      <c r="AA18" t="str">
+      <c r="AA18" s="16" t="str">
         <f>A17</f>
         <v>Quadruped single limb movement</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
+      <c r="B19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="N19" s="17"/>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
         <v>2</v>
       </c>
-      <c r="Q19" s="2">
-        <v>3</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>4</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="7" t="s">
+      <c r="Q19" s="17">
+        <v>3</v>
+      </c>
+      <c r="R19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
+        <v>4</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="Z19" s="16" t="str">
         <f>A21</f>
         <v>Birddog</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="AA19" s="16" t="str">
         <f>A18</f>
         <v>Quadruped donkey kick</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
+      <c r="B20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="N20" s="17"/>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
         <v>1</v>
       </c>
-      <c r="Q20" s="2">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>5</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X20" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="7" t="s">
+      <c r="Q20" s="17">
+        <v>3</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <v>5</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W20" s="18"/>
+      <c r="X20" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AA20" t="str">
+      <c r="AA20" s="16" t="str">
         <f>A17</f>
         <v>Quadruped single limb movement</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
+      <c r="B21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N21" s="17"/>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
         <v>2</v>
       </c>
-      <c r="Q21" s="2">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>5</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Q21" s="17">
+        <v>3</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>5</v>
+      </c>
+      <c r="T21" s="17">
+        <v>0</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AA21" t="str">
+      <c r="AA21" s="16" t="str">
         <f>A19</f>
         <v>Quadruped leg extension</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2142,7 +2217,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2207,7 +2282,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2272,7 +2347,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2333,7 +2408,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -2387,284 +2462,288 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="2">
-        <v>5</v>
-      </c>
-      <c r="P26" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>4</v>
-      </c>
-      <c r="R26" s="2">
-        <v>3</v>
-      </c>
-      <c r="S26" s="2">
-        <v>4</v>
-      </c>
-      <c r="T26" s="2">
-        <v>3</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X26" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="7" t="s">
+      <c r="N26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="17">
+        <v>5</v>
+      </c>
+      <c r="P26" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>4</v>
+      </c>
+      <c r="R26" s="17">
+        <v>3</v>
+      </c>
+      <c r="S26" s="17">
+        <v>4</v>
+      </c>
+      <c r="T26" s="17">
+        <v>3</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W26" s="18"/>
+      <c r="X26" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="Z26" t="str">
+      <c r="Z26" s="16" t="str">
         <f>A27</f>
         <v>Backward Lunge</v>
       </c>
-      <c r="AA26" t="str">
+      <c r="AA26" s="16" t="str">
         <f>A20</f>
         <v>Quadruped hip abduction</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="AC26" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2" t="s">
+      <c r="B27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="2">
-        <v>5</v>
-      </c>
-      <c r="P27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>5</v>
-      </c>
-      <c r="R27" s="2">
-        <v>3</v>
-      </c>
-      <c r="S27" s="2">
-        <v>4</v>
-      </c>
-      <c r="T27" s="2">
-        <v>3</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="7" t="s">
+      <c r="N27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="17">
+        <v>5</v>
+      </c>
+      <c r="P27" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>5</v>
+      </c>
+      <c r="R27" s="17">
+        <v>3</v>
+      </c>
+      <c r="S27" s="17">
+        <v>4</v>
+      </c>
+      <c r="T27" s="17">
+        <v>3</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W27" s="18"/>
+      <c r="X27" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="Z27" s="16" t="str">
         <f>A28</f>
         <v>Step up</v>
       </c>
-      <c r="AA27" t="str">
+      <c r="AA27" s="16" t="str">
         <f>A26</f>
         <v>Split leg squat</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AC27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="AC27" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2" t="s">
+      <c r="B28" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="2">
-        <v>5</v>
-      </c>
-      <c r="P28" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>4</v>
-      </c>
-      <c r="R28" s="2">
-        <v>3</v>
-      </c>
-      <c r="S28" s="2">
-        <v>5</v>
-      </c>
-      <c r="T28" s="2">
-        <v>3</v>
-      </c>
-      <c r="U28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="7" t="s">
+      <c r="N28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="17">
+        <v>5</v>
+      </c>
+      <c r="P28" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>4</v>
+      </c>
+      <c r="R28" s="17">
+        <v>3</v>
+      </c>
+      <c r="S28" s="17">
+        <v>5</v>
+      </c>
+      <c r="T28" s="17">
+        <v>3</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" s="18"/>
+      <c r="X28" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="Z28" s="16" t="str">
         <f>A32</f>
         <v>SL half squat</v>
       </c>
-      <c r="AA28" t="str">
+      <c r="AA28" s="16" t="str">
         <f>A30</f>
         <v>Hip hikes</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AC28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="AC28" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="2">
-        <v>5</v>
-      </c>
-      <c r="P29" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>4</v>
-      </c>
-      <c r="R29" s="2">
-        <v>3</v>
-      </c>
-      <c r="S29" s="2">
-        <v>5</v>
-      </c>
-      <c r="T29" s="2">
-        <v>3</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X29" s="2">
+      <c r="B29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="17">
+        <v>5</v>
+      </c>
+      <c r="P29" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>4</v>
+      </c>
+      <c r="R29" s="17">
+        <v>3</v>
+      </c>
+      <c r="S29" s="17">
+        <v>5</v>
+      </c>
+      <c r="T29" s="17">
+        <v>3</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="18"/>
+      <c r="X29" s="17">
         <v>6</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="Y29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AA29" t="str">
+      <c r="AA29" s="16" t="str">
         <f>A14</f>
         <v>Side plank hip abduction</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" t="s">
-        <v>108</v>
+      <c r="AC29" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
@@ -2672,7 +2751,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -2706,6 +2785,9 @@
       <c r="U30" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="V30" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="X30" s="2">
         <v>5</v>
       </c>
@@ -2724,7 +2806,7 @@
         <v>65</v>
       </c>
       <c r="AC30" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
@@ -2732,7 +2814,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>11</v>
@@ -2795,7 +2877,7 @@
         <v>65</v>
       </c>
       <c r="AC31" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
@@ -2803,7 +2885,7 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -2862,7 +2944,7 @@
         <v>65</v>
       </c>
       <c r="AC32" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -2870,7 +2952,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
@@ -2928,7 +3010,7 @@
         <v>65</v>
       </c>
       <c r="AC33" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
@@ -2949,7 +3031,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" showErrorMessage="1" errorTitle="Invalid Entry" error="Difficulty level must be between 1 and 5" sqref="X39:X991 X12 X2:X10 X28 X25:X26 X18:X23" xr:uid="{7C779247-22BA-6049-9DB7-ED80A180C36B}">
+    <dataValidation type="whole" showErrorMessage="1" errorTitle="Invalid Entry" error="Difficulty level must be between 1 and 5" sqref="X39:X991 X12 X2:X10 X28 X18:X23 X25:X26" xr:uid="{7C779247-22BA-6049-9DB7-ED80A180C36B}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
